--- a/planilha_de_cadastro_de_turmas_no_censo.xlsx
+++ b/planilha_de_cadastro_de_turmas_no_censo.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">NOME_DA_TURMA</t>
   </si>
   <si>
     <t xml:space="preserve">CODIGO_DO_CURSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOME_DO_CURSO</t>
   </si>
   <si>
     <t xml:space="preserve">STATUS</t>
@@ -43,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,8 +106,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -124,27 +132,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
